--- a/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 3 Julien LAY .xlsx
+++ b/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 3 Julien LAY .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\Stage 1ère année\Carnet de bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E41ECF1-5669-455E-961D-10E678716FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8A8A7-0CDD-44FB-BA9C-171586AEA2DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Missions</t>
   </si>
@@ -197,9 +197,6 @@
     <t xml:space="preserve">Commentaires : </t>
   </si>
   <si>
-    <t>Semaine 2</t>
-  </si>
-  <si>
     <t>LUNDI après-midi</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>MARDI après-midi</t>
+  </si>
+  <si>
+    <t>Monsieur SEGATO m'a prévenu de ne pas venir car il y a avait des travaux dans le magasin : peinture, electricité, etc.</t>
+  </si>
+  <si>
+    <t>Semaine 3</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -609,11 +612,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -630,9 +713,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,104 +772,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,91 +1259,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="51"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="52"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="53"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="54" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="54" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1244,442 +1351,436 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="64"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10" s="24" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:10" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" s="24" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="64"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A40:C40"/>
+  <mergeCells count="51">
+    <mergeCell ref="B8:J11"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
@@ -1696,23 +1797,28 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>

--- a/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 3 Julien LAY .xlsx
+++ b/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 3 Julien LAY .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\Stage 1ère année\Carnet de bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8A8A7-0CDD-44FB-BA9C-171586AEA2DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E69C1-3CF9-4BF6-B57F-62231B4B1D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Missions</t>
   </si>
@@ -219,6 +219,42 @@
   </si>
   <si>
     <t>Semaine 3</t>
+  </si>
+  <si>
+    <t>Tester un PC portable</t>
+  </si>
+  <si>
+    <t>Tester un PC portable : problème d'ordinateur qui ne s'allume pas</t>
+  </si>
+  <si>
+    <t>Atelier de l'entreprise avec le matériel informatique nécessaire</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Savoir faire des manipulations simples que l'on m'a montré</t>
+  </si>
+  <si>
+    <t>Etre autonome ef faire des corrélations avec mes connaissances du stage</t>
+  </si>
+  <si>
+    <t>Mise en vitrine de matériel informatique retro avec nettoyage du magasin</t>
+  </si>
+  <si>
+    <t>Mise en vitrine + nettoyage magasin</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Savoir manipuler soigneusement d'ancien outils informatique et nettoyer</t>
+  </si>
+  <si>
+    <t>Etre autonome et rigoureux dans le travail</t>
+  </si>
+  <si>
+    <t>J'ai été accompagné d'un autre stagiaire lycéen : Anthony.</t>
   </si>
 </sst>
 </file>
@@ -310,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -692,11 +728,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -768,6 +815,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,25 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,33 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,8 +1319,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,91 +1336,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="61"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="57" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="62"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="63"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="73" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1351,17 +1428,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1371,8 +1448,8 @@
         <v>32</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1381,58 +1458,58 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
@@ -1446,57 +1523,89 @@
       <c r="I12" s="22"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="B13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="28">
+        <v>3</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="41">
+        <v>3</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
@@ -1511,12 +1620,12 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -1525,10 +1634,10 @@
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -1537,12 +1646,12 @@
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="50" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -1551,10 +1660,10 @@
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -1575,56 +1684,58 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="B23" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" s="24" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" s="24" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
@@ -1639,12 +1750,12 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -1653,10 +1764,10 @@
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="25"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -1665,12 +1776,12 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="63" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="25"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -1679,10 +1790,10 @@
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="25"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -1691,83 +1802,85 @@
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="62"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
+      <c r="A33" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="53">
     <mergeCell ref="B8:J11"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="I5:I6"/>
@@ -1797,19 +1910,12 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="E3:J3"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A34:J34"/>
@@ -1819,6 +1925,15 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B23:J26"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>

--- a/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 3 Julien LAY .xlsx
+++ b/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 3 Julien LAY .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\Stage 1ère année\Carnet de bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E69C1-3CF9-4BF6-B57F-62231B4B1D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA6E43-03B2-4DD0-BD77-817380E93DE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Missions</t>
   </si>
@@ -254,7 +254,28 @@
     <t>Etre autonome et rigoureux dans le travail</t>
   </si>
   <si>
-    <t>J'ai été accompagné d'un autre stagiaire lycéen : Anthony.</t>
+    <t>Gérer la clientèle</t>
+  </si>
+  <si>
+    <t>Gérer les demandes de la clientèle ainsi que certaines factures et devis</t>
+  </si>
+  <si>
+    <t>Poste informatique de l'accueil, imprimante</t>
+  </si>
+  <si>
+    <t>Savoir communiquer avec le client et être autonome (ou poser des questions à M. SEGATO)</t>
+  </si>
+  <si>
+    <t>2 ou 3</t>
+  </si>
+  <si>
+    <t>Oberserver, questionner, faire des corrélations avec mes connaissances du stage</t>
+  </si>
+  <si>
+    <t>Toute la journée</t>
+  </si>
+  <si>
+    <t>J'ai été accompagné d'un autre stagiaire lycéen cette semaine : Anthony.</t>
   </si>
 </sst>
 </file>
@@ -743,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -828,62 +849,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,11 +903,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -913,68 +979,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,91 +1360,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="74" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="80"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="76" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="81"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="82"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="67" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="42" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1428,17 +1452,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="69"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1448,8 +1472,8 @@
         <v>32</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1458,58 +1482,58 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
@@ -1524,16 +1548,16 @@
       <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="27" t="s">
         <v>35</v>
       </c>
@@ -1554,58 +1578,58 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="41" t="s">
+      <c r="D14" s="83"/>
+      <c r="E14" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="80">
         <v>3</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
@@ -1620,56 +1644,72 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="B18" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
@@ -1684,58 +1724,58 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" s="24" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" s="24" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
@@ -1750,12 +1790,12 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -1764,10 +1804,10 @@
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="25"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -1776,12 +1816,12 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="78" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="25"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -1790,10 +1830,10 @@
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="64"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="25"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -1802,98 +1842,111 @@
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="62"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
+      <c r="A33" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="71"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B8:J11"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="57">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B23:J26"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
@@ -1910,30 +1963,21 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="E3:J3"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B23:J26"/>
+    <mergeCell ref="B8:J11"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:D16"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>

--- a/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 3 Julien LAY .xlsx
+++ b/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 3 Julien LAY .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\Stage 1ère année\Carnet de bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA6E43-03B2-4DD0-BD77-817380E93DE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5FE9E-3CE7-4865-99AE-2E920AB4521D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'carnet de bord'!$A$1:$J$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'carnet de bord'!$A$1:$J$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Missions</t>
   </si>
@@ -275,7 +275,40 @@
     <t>Toute la journée</t>
   </si>
   <si>
-    <t>J'ai été accompagné d'un autre stagiaire lycéen cette semaine : Anthony.</t>
+    <t>Transfert de données disquettes vers CD</t>
+  </si>
+  <si>
+    <t>Logiciel Nero Express</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Oberserver et manipuler avec monsieur SEGATO</t>
+  </si>
+  <si>
+    <t>Retrait marchandise</t>
+  </si>
+  <si>
+    <t>Retrait d'un PC fixe, de 3 PC portables et d'un adaptateur pour carte mémoire chez le fournisseur NEO</t>
+  </si>
+  <si>
+    <t>Voiture personnelle</t>
+  </si>
+  <si>
+    <t>Savoir aller à une adresse demandé et récupérer la marchandise</t>
+  </si>
+  <si>
+    <t>Test PC portable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test de la batterie d'un PC portable pour voir si il fonctionne et le rendre au client après réparation </t>
+  </si>
+  <si>
+    <t>J'ai été accompagné d'un autre stagiaire lycéen cette semaine : Anthony CAVAGNÉ.</t>
+  </si>
+  <si>
+    <t>Cette semaine s'est bien déroulé malgré le fait que je n'ai pas eu l'occassion de demander  à monsieur SEGATO de remplir les documents de fin de stage ainsi que de le remercier pour le stage car il était en intervention toute la journée.</t>
   </si>
 </sst>
 </file>
@@ -367,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -659,17 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -764,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -846,10 +868,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -858,22 +898,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,10 +928,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,19 +940,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,6 +994,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -970,34 +1013,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1341,10 +1372,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,91 +1391,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="65" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="45" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1452,17 +1483,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1472,8 +1503,8 @@
         <v>32</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1482,58 +1513,58 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
@@ -1548,16 +1579,16 @@
       <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="27" t="s">
         <v>35</v>
       </c>
@@ -1573,63 +1604,63 @@
       <c r="I13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="80" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
@@ -1644,72 +1675,72 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="83" t="s">
+      <c r="D18" s="89"/>
+      <c r="E18" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="85">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="33"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="36"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="87"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
@@ -1724,58 +1755,58 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" s="24" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10" s="24" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
@@ -1789,167 +1820,243 @@
       <c r="I27" s="12"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
+      <c r="B28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="85"/>
+      <c r="E28" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="25">
+        <v>2</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="79"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="87"/>
+      <c r="B31" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="86"/>
+      <c r="E31" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="25">
+        <v>3</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="87"/>
+      <c r="B32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="88"/>
+      <c r="E32" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="28">
+        <v>3</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="74"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="84"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="72"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="74"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="55" t="s">
+      <c r="A34" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="81"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="81"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="78"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="55" t="s">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="64">
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:D21"/>
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B23:J26"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="J18:J21"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B23:J26"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1969,7 +2076,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A23:A24"/>
@@ -1978,6 +2084,16 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:D16"/>
     <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
